--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N2">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q2">
-        <v>27.14826473577111</v>
+        <v>1.623439825733778</v>
       </c>
       <c r="R2">
-        <v>244.33438262194</v>
+        <v>14.610958431604</v>
       </c>
       <c r="S2">
-        <v>0.01642669768657149</v>
+        <v>0.001237362575896028</v>
       </c>
       <c r="T2">
-        <v>0.01642669768657149</v>
+        <v>0.001237362575896028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.744414</v>
       </c>
       <c r="N3">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O3">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P3">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q3">
-        <v>38.11504235889466</v>
+        <v>10.82586003168133</v>
       </c>
       <c r="R3">
-        <v>343.035381230052</v>
+        <v>97.43274028513201</v>
       </c>
       <c r="S3">
-        <v>0.02306240506471345</v>
+        <v>0.008251315412344553</v>
       </c>
       <c r="T3">
-        <v>0.02306240506471344</v>
+        <v>0.008251315412344553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N4">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q4">
-        <v>17.70212176300422</v>
+        <v>7.25356382886689</v>
       </c>
       <c r="R4">
-        <v>159.319095867038</v>
+        <v>65.282074459802</v>
       </c>
       <c r="S4">
-        <v>0.01071108615751049</v>
+        <v>0.005528562427410118</v>
       </c>
       <c r="T4">
-        <v>0.01071108615751049</v>
+        <v>0.005528562427410118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N5">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q5">
-        <v>478.4264108809323</v>
+        <v>100.7263891177905</v>
       </c>
       <c r="R5">
-        <v>4305.837697928391</v>
+        <v>906.5375020601141</v>
       </c>
       <c r="S5">
-        <v>0.2894831803543368</v>
+        <v>0.0767722106627273</v>
       </c>
       <c r="T5">
-        <v>0.2894831803543368</v>
+        <v>0.0767722106627273</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.744414</v>
       </c>
       <c r="N6">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O6">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P6">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q6">
-        <v>671.6909199840513</v>
+        <v>671.6909199840514</v>
       </c>
       <c r="R6">
-        <v>6045.218279856463</v>
+        <v>6045.218279856464</v>
       </c>
       <c r="S6">
-        <v>0.4064224284233868</v>
+        <v>0.5119531957901667</v>
       </c>
       <c r="T6">
-        <v>0.4064224284233867</v>
+        <v>0.5119531957901668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N7">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q7">
-        <v>311.9596284506615</v>
+        <v>450.0476587648953</v>
       </c>
       <c r="R7">
-        <v>2807.636656055953</v>
+        <v>4050.428928884058</v>
       </c>
       <c r="S7">
-        <v>0.1887585286518176</v>
+        <v>0.3430198776068631</v>
       </c>
       <c r="T7">
-        <v>0.1887585286518176</v>
+        <v>0.3430198776068631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N8">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q8">
-        <v>35.22537565590333</v>
+        <v>5.755241016057555</v>
       </c>
       <c r="R8">
-        <v>317.02838090313</v>
+        <v>51.79716914451799</v>
       </c>
       <c r="S8">
-        <v>0.02131394409282503</v>
+        <v>0.004386562246193936</v>
       </c>
       <c r="T8">
-        <v>0.02131394409282503</v>
+        <v>0.004386562246193936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.744414</v>
       </c>
       <c r="N9">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O9">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P9">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q9">
-        <v>49.45497247430599</v>
+        <v>38.37865296933267</v>
       </c>
       <c r="R9">
-        <v>445.094752268754</v>
+        <v>345.407876723994</v>
       </c>
       <c r="S9">
-        <v>0.02992389715659166</v>
+        <v>0.02925165943621533</v>
       </c>
       <c r="T9">
-        <v>0.02992389715659165</v>
+        <v>0.02925165943621533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N10">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q10">
-        <v>22.96883042350566</v>
+        <v>25.71453983002878</v>
       </c>
       <c r="R10">
-        <v>206.719473811551</v>
+        <v>231.430858470259</v>
       </c>
       <c r="S10">
-        <v>0.01389783241224668</v>
+        <v>0.01959925384218287</v>
       </c>
       <c r="T10">
-        <v>0.01389783241224668</v>
+        <v>0.01959925384218287</v>
       </c>
     </row>
   </sheetData>
